--- a/Фільми.xlsx
+++ b/Фільми.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professional\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professional\Desktop\файлы\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="комедія" sheetId="1" r:id="rId1"/>
-    <sheet name="бойовик" sheetId="2" r:id="rId2"/>
+    <sheet name="кримінал " sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,20 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>«Операція „И“ та інші пригоди Шурика»</t>
   </si>
   <si>
-    <t>«Фо́ррест Ґамп»</t>
-  </si>
-  <si>
     <t>Леонід Гайдай</t>
   </si>
   <si>
-    <t>Роберт Земекіс</t>
-  </si>
-  <si>
     <t>Назва</t>
   </si>
   <si>
@@ -51,33 +45,21 @@
     <t>Мосфільм</t>
   </si>
   <si>
-    <t>Paramount Pictures</t>
-  </si>
-  <si>
     <t>Країна</t>
   </si>
   <si>
     <t>СССР</t>
   </si>
   <si>
-    <t>США</t>
-  </si>
-  <si>
     <t>Бюджет в $</t>
   </si>
   <si>
-    <t xml:space="preserve">55 млн </t>
-  </si>
-  <si>
     <t>Опис фільму</t>
   </si>
   <si>
     <t>Основою сюжету є пригоди Шурика (Сашка) — наївного студента-невдахи, що постійно потрапляє в усілякі курйозні ситуації, але завжди виходить з них переможцем. У новелі «Операція И» також задіяно тріо комічних антигероїв-шахраїв — Балбеса (Ю. Нікулін), Боягуза (Г. Віцин) і Бувалого (Є. Моргунов) з короткометражних фільмів Гайдая «Пес Барбос і незвичайний крос» і «Самогонники».</t>
   </si>
   <si>
-    <t>1981 рік. Форрест Ґамп (Том Генкс) сидить на лавці в місті Саванна, штат Джорджія. Він розповідає історію свого життя випадковим людям, які час від часу сідають до нього на лавку.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Дата смерті </t>
   </si>
   <si>
@@ -87,49 +69,58 @@
     <t>ч</t>
   </si>
   <si>
-    <t>«Ма́триця»</t>
-  </si>
-  <si>
-    <t>«Міцни́й горі́шок»</t>
-  </si>
-  <si>
-    <t>Джон Мактірнан</t>
-  </si>
-  <si>
     <t>Рік заснування</t>
   </si>
   <si>
-    <t>20 Century Fox</t>
-  </si>
-  <si>
-    <t>Silver Pictures</t>
-  </si>
-  <si>
     <t xml:space="preserve">Дата народження </t>
   </si>
   <si>
+    <t>Дата народження</t>
+  </si>
+  <si>
+    <t>Рік виходу</t>
+  </si>
+  <si>
+    <t>Дата смерті</t>
+  </si>
+  <si>
+    <t>Кривенко Катерина</t>
+  </si>
+  <si>
+    <t>п</t>
+  </si>
+  <si>
+    <t>Жахи написання диплому</t>
+  </si>
+  <si>
+    <t>DYPLOMA</t>
+  </si>
+  <si>
+    <t>Україна</t>
+  </si>
+  <si>
+    <t>00.00</t>
+  </si>
+  <si>
+    <t>жах</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>ж</t>
   </si>
   <si>
-    <t>Лоренс Вачовскі</t>
-  </si>
-  <si>
-    <t>Дата народження</t>
-  </si>
-  <si>
-    <t>Фільм зображує майбутнє, у якому люди насильно під'єднані повсталими машинами до Матриці — інтерактивної комп'ютерної програми, що симулює дійсність. У такий спосіб машини одержують із людей енергію, що потрібна їм для продовження існування. Хакерові Нео належить дізнатися яким є справжній світ і стати визволителем людства.</t>
-  </si>
-  <si>
-    <t>Рік виходу</t>
-  </si>
-  <si>
-    <t>Дата смерті</t>
-  </si>
-  <si>
-    <t>63.00 млн</t>
-  </si>
-  <si>
-    <t>28.00 млн</t>
+    <t>t</t>
+  </si>
+  <si>
+    <t>19 млн</t>
+  </si>
+  <si>
+    <t>9млн</t>
   </si>
 </sst>
 </file>
@@ -183,7 +174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -207,25 +198,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -242,16 +222,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -259,14 +232,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -550,56 +530,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="18" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18" style="7" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" style="6" customWidth="1"/>
     <col min="7" max="7" width="17.88671875" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" style="6" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" customWidth="1"/>
     <col min="11" max="11" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -607,63 +587,66 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="11">
+        <v>29</v>
+      </c>
+      <c r="D2" s="8">
         <v>41255</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="8">
         <v>34292</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="6">
         <v>1965</v>
       </c>
       <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1920</v>
+      </c>
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9">
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="216" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="8">
+        <v>41255</v>
+      </c>
+      <c r="E3" s="8">
+        <v>34292</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1965</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="6">
         <v>1920</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="11">
-        <v>41255</v>
-      </c>
-      <c r="F3" s="9">
-        <v>1994</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="9">
-        <v>1912</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -674,10 +657,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -685,114 +668,307 @@
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="17.88671875" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" style="6" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" style="6" customWidth="1"/>
     <col min="9" max="9" width="14.44140625" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="26.44140625" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="10">
+        <v>44337</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="11">
+        <v>2050</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="12">
+        <v>2020</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="13">
-        <v>23883</v>
-      </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="8">
-        <v>1999</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="J2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="H2" s="9">
-        <v>1980</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="14">
-        <v>18636</v>
-      </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="8">
-        <v>1988</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="9">
-        <v>1935</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s">
-        <v>34</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="12">
+        <v>2050</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
